--- a/TestReport/econ_alpha/肌电臂环软件econ_alpha缺陷报告1.0.xlsx
+++ b/TestReport/econ_alpha/肌电臂环软件econ_alpha缺陷报告1.0.xlsx
@@ -21,12 +21,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>缺陷说明：</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>ID：</t>
     </r>
     <r>
@@ -412,6 +419,27 @@
   <si>
     <t>怀疑硬件
 蓝牙问题</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>手势训练中途更改手势，界面显示没有对应改变</t>
+  </si>
+  <si>
+    <t>1.打开eCon-alpha软件
+2.连接设备
+4.点击手势训练模块，切换手势</t>
+  </si>
+  <si>
+    <t>手势训练中途更改手势，界面显示对应改变</t>
+  </si>
+  <si>
+    <t>手势训练中途更改手势，
+界面显示没有对应改变</t>
+  </si>
+  <si>
+    <t>2022.9.30</t>
   </si>
   <si>
     <t>测试模块</t>
@@ -1135,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,16 +1230,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,6 +1464,48 @@
         <a:xfrm>
           <a:off x="14554200" y="3692525"/>
           <a:ext cx="1146175" cy="688975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>617855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1067435</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14614525" y="6574155"/>
+          <a:ext cx="988060" cy="683260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,7 +2017,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2369,7 +2442,7 @@
       <c r="K8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -2481,13 +2554,60 @@
       <c r="O10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="22" t="s">
         <v>87</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="R10" s="20"/>
+    </row>
+    <row r="11" ht="49.5" spans="1:17">
+      <c r="A11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" ht="18" spans="1:2">
       <c r="A12" s="16"/>
@@ -2519,7 +2639,7 @@
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" ht="14.25" spans="1:8">
       <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
@@ -2531,7 +2651,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" ht="14.25" spans="1:8">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2750,7 +2870,7 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:1">
@@ -2775,17 +2895,17 @@
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2810,12 +2930,12 @@
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2840,12 +2960,12 @@
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2870,12 +2990,12 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2900,12 +3020,12 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2930,12 +3050,12 @@
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
